--- a/doc/supplementary/Supp_Table3.xlsx
+++ b/doc/supplementary/Supp_Table3.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adamklie/Desktop/lab/projects/predictMEE/doc/supplementary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81010237-FE97-8647-BC19-19309E09E0CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F10F93E-B555-B743-8496-33366026DC17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="940" windowWidth="27640" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Supp_Table3" sheetId="1" r:id="rId1"/>
+    <sheet name="Supp_Table3" sheetId="3" r:id="rId1"/>
     <sheet name="Representative examples" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -3597,11 +3597,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FBECEB6-DED0-B24E-88AA-0A70A9CFDD40}">
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -9909,7 +9909,7 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
